--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_1_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_1_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1450618.576848791</v>
+        <v>1420977.358111806</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1737911.484358931</v>
+        <v>1859783.096704495</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4541732.173075101</v>
+        <v>2362118.593506646</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9605299.613516435</v>
+        <v>10589571.65571954</v>
       </c>
     </row>
     <row r="11">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>237.4552014283708</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>285.6410909649533</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -718,7 +718,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -806,7 +806,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773045</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -819,28 +819,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>18.37682225755673</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>78.05511366057888</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -898,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>191.4537754616073</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -952,13 +952,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>120.710289862689</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>20.80418026530528</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>18.37682225755673</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1074,10 +1074,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>163.8427767359268</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>113.1460968518025</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1293,19 +1293,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>14.46389722690856</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>230.2634979541061</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,13 +1417,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>26.94389492651078</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>366.6729598617977</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1466,10 +1466,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H12" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1572,25 +1572,25 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>14.48345164522491</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>94.63926978364063</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1612,22 +1612,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>323.9918595228957</v>
+        <v>135.221554424003</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.5310119231965</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H15" t="n">
-        <v>104.3883541553076</v>
+        <v>99.90681807664345</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250818</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229331</v>
+        <v>20.90078060183509</v>
       </c>
       <c r="S15" t="n">
-        <v>156.5912426325231</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T15" t="n">
-        <v>196.8897623984489</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>165.0140383262353</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1809,25 +1809,25 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>9.275596830496966</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>110.230637073005</v>
+        <v>267.3976499052342</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>154.6528871281403</v>
+        <v>149.9222220274004</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>211.7430979376325</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.1381782921609</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1937,13 +1937,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.0669836643703</v>
+        <v>135.9559083391491</v>
       </c>
       <c r="H18" t="n">
-        <v>99.90681807664348</v>
+        <v>98.83406427779748</v>
       </c>
       <c r="I18" t="n">
-        <v>45.44580843958678</v>
+        <v>41.62150447912309</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>20.90078060183529</v>
+        <v>14.0043669885456</v>
       </c>
       <c r="S18" t="n">
-        <v>147.9721212459916</v>
+        <v>145.9089457972574</v>
       </c>
       <c r="T18" t="n">
-        <v>195.0194028815133</v>
+        <v>194.5716913732756</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8573996139459</v>
+        <v>225.8500920267603</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>87.34529877822837</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2055,22 +2055,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>223.3729047207587</v>
+        <v>56.89022289215372</v>
       </c>
       <c r="U19" t="n">
-        <v>286.260654658097</v>
+        <v>286.2555752860204</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2092,16 +2092,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>216.2945975790797</v>
       </c>
       <c r="G20" t="n">
-        <v>412.9169039459368</v>
+        <v>412.7093048191902</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>312.9148095184212</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4960408938906</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>149.9222220274004</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>211.7430979376325</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>61.2228378314524</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2174,13 +2174,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>136.0669836643703</v>
+        <v>135.9559083391491</v>
       </c>
       <c r="H21" t="n">
-        <v>99.90681807664348</v>
+        <v>98.83406427779748</v>
       </c>
       <c r="I21" t="n">
-        <v>45.44580843958678</v>
+        <v>41.62150447912309</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,16 +2207,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>20.90078060183531</v>
+        <v>14.0043669885456</v>
       </c>
       <c r="S21" t="n">
-        <v>147.9721212459916</v>
+        <v>145.9089457972574</v>
       </c>
       <c r="T21" t="n">
-        <v>195.0194028815133</v>
+        <v>194.5716913732756</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8573996139459</v>
+        <v>225.8500920267603</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2241,16 +2241,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>129.1731816677914</v>
+        <v>124.9860859526905</v>
       </c>
       <c r="S22" t="n">
-        <v>205.3658819001187</v>
+        <v>7.776799936658433</v>
       </c>
       <c r="T22" t="n">
-        <v>14.28094875512995</v>
+        <v>222.9750205747625</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2555752860204</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2335,10 +2335,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H23" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>143.3158222056514</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2715,25 +2715,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>16.56305557306962</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2809,7 +2809,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113166</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
         <v>81.77913505274077</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>54.97117385624345</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3012,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3043,13 +3043,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H32" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3243,16 +3243,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>66.14085215535403</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>79.14943066638004</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3511,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>14.73664328357096</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3717,10 +3717,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3903,22 +3903,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>89.31388526223839</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4042,7 +4042,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4134,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>95.02525064967651</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>88.40546239687016</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1603.407129497229</v>
+        <v>1275.883734065348</v>
       </c>
       <c r="C2" t="n">
-        <v>1603.407129497229</v>
+        <v>906.9212171249362</v>
       </c>
       <c r="D2" t="n">
-        <v>1603.407129497229</v>
+        <v>906.9212171249362</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>906.9212171249362</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>495.9353123353287</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4348,10 +4348,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
@@ -4360,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834949</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.546461473041</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.546461473041</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1993.546461473041</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1993.546461473041</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>1603.407129497229</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="3">
@@ -4385,43 +4385,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4430,28 +4430,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064344</v>
+        <v>470.7225141620388</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064344</v>
+        <v>301.7863312341319</v>
       </c>
       <c r="D4" t="n">
-        <v>728.1289842064344</v>
+        <v>301.7863312341319</v>
       </c>
       <c r="E4" t="n">
-        <v>709.5665374816297</v>
+        <v>301.7863312341319</v>
       </c>
       <c r="F4" t="n">
-        <v>562.6765899837193</v>
+        <v>301.7863312341319</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220517</v>
+        <v>132.7865309724643</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>132.7865309724643</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>470.7225141620388</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>470.7225141620388</v>
       </c>
     </row>
     <row r="5">
@@ -4543,31 +4543,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1208.982837814967</v>
+        <v>1507.939751500713</v>
       </c>
       <c r="C5" t="n">
-        <v>1208.982837814967</v>
+        <v>1138.977234560301</v>
       </c>
       <c r="D5" t="n">
-        <v>850.7171392082163</v>
+        <v>1138.977234560301</v>
       </c>
       <c r="E5" t="n">
-        <v>464.928886609972</v>
+        <v>1138.977234560301</v>
       </c>
       <c r="F5" t="n">
-        <v>53.94298182036446</v>
+        <v>727.9913297706935</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036446</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4585,34 +4585,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304456</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2048.575150942547</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>1717.512263598976</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W5" t="n">
-        <v>1595.582677879089</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="X5" t="n">
-        <v>1595.582677879089</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="Y5" t="n">
-        <v>1595.582677879089</v>
+        <v>1894.539591564834</v>
       </c>
     </row>
     <row r="6">
@@ -4622,40 +4622,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4667,28 +4667,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064344</v>
+        <v>677.697741559748</v>
       </c>
       <c r="D7" t="n">
-        <v>728.1289842064344</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="E7" t="n">
-        <v>709.5665374816297</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="F7" t="n">
-        <v>562.6765899837193</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G7" t="n">
-        <v>393.6767897220517</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>830.1724885289282</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>830.1724885289282</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>471.9067899221776</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>471.9067899221776</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2527.831414829723</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2527.831414829723</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U8" t="n">
-        <v>2274.069629467815</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V8" t="n">
-        <v>1943.006742124244</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="W8" t="n">
-        <v>1590.23808685413</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="X8" t="n">
-        <v>1216.77232859305</v>
+        <v>2147.505845071313</v>
       </c>
       <c r="Y8" t="n">
-        <v>1216.77232859305</v>
+        <v>1757.366513095501</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4880,46 +4880,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641987</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>563.4023475952011</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>415.489254012808</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4989,25 +4989,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>286.5323736931989</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5017,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1166.959449965771</v>
+        <v>1700.340352117536</v>
       </c>
       <c r="C11" t="n">
-        <v>797.9969330253592</v>
+        <v>1331.377835177124</v>
       </c>
       <c r="D11" t="n">
-        <v>439.7312344186087</v>
+        <v>1331.377835177124</v>
       </c>
       <c r="E11" t="n">
-        <v>53.94298182036446</v>
+        <v>945.5895825788796</v>
       </c>
       <c r="F11" t="n">
-        <v>53.94298182036446</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036446</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I11" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733127</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224076</v>
+        <v>881.282427122408</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O11" t="n">
         <v>2238.843319642689</v>
@@ -5065,28 +5065,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R11" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S11" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T11" t="n">
-        <v>2669.933035536899</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U11" t="n">
-        <v>2669.933035536899</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="V11" t="n">
-        <v>2669.933035536899</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="W11" t="n">
-        <v>2317.164380266785</v>
+        <v>2070.717079250664</v>
       </c>
       <c r="X11" t="n">
-        <v>1943.698622005704</v>
+        <v>1700.340352117536</v>
       </c>
       <c r="Y11" t="n">
-        <v>1553.559290029893</v>
+        <v>1700.340352117536</v>
       </c>
     </row>
     <row r="12">
@@ -5111,7 +5111,7 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H12" t="n">
         <v>115.9856282673424</v>
@@ -5123,10 +5123,10 @@
         <v>53.94298182036446</v>
       </c>
       <c r="K12" t="n">
-        <v>266.2060027641992</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L12" t="n">
-        <v>670.8219208598711</v>
+        <v>670.8219208598709</v>
       </c>
       <c r="M12" t="n">
         <v>1194.968834417902</v>
@@ -5208,7 +5208,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M13" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N13" t="n">
         <v>529.6040388502502</v>
@@ -5217,25 +5217,25 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q13" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R13" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S13" t="n">
-        <v>535.9356573576496</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T13" t="n">
-        <v>308.6274700262513</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U13" t="n">
-        <v>308.6274700262513</v>
+        <v>438.9553738610025</v>
       </c>
       <c r="V13" t="n">
-        <v>53.94298182036446</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W13" t="n">
         <v>53.94298182036446</v>
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1546.94416071721</v>
+        <v>1786.709430001884</v>
       </c>
       <c r="C14" t="n">
-        <v>1177.981643776798</v>
+        <v>1417.746913061472</v>
       </c>
       <c r="D14" t="n">
-        <v>1177.981643776798</v>
+        <v>1059.481214454722</v>
       </c>
       <c r="E14" t="n">
-        <v>792.1933911785536</v>
+        <v>1059.481214454722</v>
       </c>
       <c r="F14" t="n">
-        <v>381.2074863889461</v>
+        <v>648.4953096651145</v>
       </c>
       <c r="G14" t="n">
-        <v>53.94298182036446</v>
+        <v>511.9078809540003</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036446</v>
+        <v>193.6847657265099</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036446</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533142</v>
+        <v>262.631694140357</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733127</v>
+        <v>666.0988071604024</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224076</v>
+        <v>1218.912065406602</v>
       </c>
       <c r="M14" t="n">
-        <v>1362.238747280443</v>
+        <v>1850.629876389914</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977175</v>
+        <v>2477.93754444976</v>
       </c>
       <c r="O14" t="n">
-        <v>2238.843319642689</v>
+        <v>3025.098749216837</v>
       </c>
       <c r="P14" t="n">
-        <v>2544.691559791253</v>
+        <v>3454.413795556132</v>
       </c>
       <c r="Q14" t="n">
-        <v>2697.149091018223</v>
+        <v>3699.589756331033</v>
       </c>
       <c r="R14" t="n">
-        <v>2697.149091018223</v>
+        <v>3699.589756331033</v>
       </c>
       <c r="S14" t="n">
-        <v>2697.149091018223</v>
+        <v>3543.374718827861</v>
       </c>
       <c r="T14" t="n">
-        <v>2697.149091018223</v>
+        <v>3543.374718827861</v>
       </c>
       <c r="U14" t="n">
-        <v>2697.149091018223</v>
+        <v>3289.683015573012</v>
       </c>
       <c r="V14" t="n">
-        <v>2697.149091018223</v>
+        <v>3289.683015573012</v>
       </c>
       <c r="W14" t="n">
-        <v>2697.149091018223</v>
+        <v>2936.914360302897</v>
       </c>
       <c r="X14" t="n">
-        <v>2323.683332757143</v>
+        <v>2563.448602041818</v>
       </c>
       <c r="Y14" t="n">
-        <v>1933.544000781331</v>
+        <v>2173.309270066006</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.4979752170833</v>
+        <v>987.4134795532265</v>
       </c>
       <c r="C15" t="n">
-        <v>814.0449459359563</v>
+        <v>812.9604502720995</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747051</v>
+        <v>664.0260406108482</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692495</v>
+        <v>504.7885856053927</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961344</v>
+        <v>358.2540276322777</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424006</v>
+        <v>220.8126299914996</v>
       </c>
       <c r="H15" t="n">
-        <v>115.9856282673424</v>
+        <v>119.8966521363042</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036446</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="J15" t="n">
-        <v>129.2001442204943</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="K15" t="n">
-        <v>384.4474646615928</v>
+        <v>141.5996147899777</v>
       </c>
       <c r="L15" t="n">
-        <v>789.0633827572647</v>
+        <v>645.9611546560963</v>
       </c>
       <c r="M15" t="n">
-        <v>1313.210296315296</v>
+        <v>1286.506504123201</v>
       </c>
       <c r="N15" t="n">
-        <v>1748.695370517453</v>
+        <v>1959.712196375984</v>
       </c>
       <c r="O15" t="n">
-        <v>2188.831293537797</v>
+        <v>2509.148205128707</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.076107152626</v>
+        <v>2617.837832656006</v>
       </c>
       <c r="Q15" t="n">
-        <v>2697.149091018223</v>
+        <v>2656.33685256765</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430048</v>
+        <v>2635.224952969837</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073964</v>
+        <v>2485.758163832472</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196743</v>
+        <v>2288.76886799256</v>
       </c>
       <c r="U15" t="n">
-        <v>2061.714576167582</v>
+        <v>2060.630080503725</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.56246793584</v>
+        <v>1825.477972271983</v>
       </c>
       <c r="W15" t="n">
-        <v>1572.325111207638</v>
+        <v>1571.240615543781</v>
       </c>
       <c r="X15" t="n">
-        <v>1364.473611002105</v>
+        <v>1363.389115338248</v>
       </c>
       <c r="Y15" t="n">
-        <v>1156.713312237151</v>
+        <v>1155.628816573294</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>99.59950625323012</v>
+        <v>240.6726419207977</v>
       </c>
       <c r="C16" t="n">
-        <v>99.59950625323012</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="D16" t="n">
-        <v>99.59950625323012</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="E16" t="n">
-        <v>99.59950625323012</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="F16" t="n">
-        <v>99.59950625323012</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="G16" t="n">
-        <v>99.59950625323012</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="H16" t="n">
-        <v>99.59950625323012</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="I16" t="n">
-        <v>99.59950625323012</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036446</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="K16" t="n">
-        <v>110.2451748866326</v>
+        <v>175.0397247222305</v>
       </c>
       <c r="L16" t="n">
-        <v>237.8190324477911</v>
+        <v>359.8727196230489</v>
       </c>
       <c r="M16" t="n">
-        <v>382.716901165821</v>
+        <v>565.1423203422868</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502502</v>
+        <v>770.9656851783911</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594903</v>
+        <v>945.06058056699</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064344</v>
+        <v>1070.508157165606</v>
       </c>
       <c r="Q16" t="n">
-        <v>698.7120650600564</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="R16" t="n">
-        <v>550.5654064942404</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="S16" t="n">
-        <v>336.2769833124031</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="T16" t="n">
-        <v>108.9687959810048</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="U16" t="n">
-        <v>99.59950625323012</v>
+        <v>784.7743001636452</v>
       </c>
       <c r="V16" t="n">
-        <v>99.59950625323012</v>
+        <v>530.0898119577583</v>
       </c>
       <c r="W16" t="n">
-        <v>99.59950625323012</v>
+        <v>240.6726419207977</v>
       </c>
       <c r="X16" t="n">
-        <v>99.59950625323012</v>
+        <v>240.6726419207977</v>
       </c>
       <c r="Y16" t="n">
-        <v>99.59950625323012</v>
+        <v>240.6726419207977</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1709.338245913155</v>
+        <v>1873.155400150674</v>
       </c>
       <c r="C17" t="n">
-        <v>1340.375728972743</v>
+        <v>1504.192883210262</v>
       </c>
       <c r="D17" t="n">
-        <v>982.1100303659925</v>
+        <v>1145.927184603511</v>
       </c>
       <c r="E17" t="n">
-        <v>596.3217777677482</v>
+        <v>760.1389320052672</v>
       </c>
       <c r="F17" t="n">
-        <v>185.3358729781407</v>
+        <v>349.1530272156596</v>
       </c>
       <c r="G17" t="n">
-        <v>73.9917951266205</v>
+        <v>79.05439094774633</v>
       </c>
       <c r="H17" t="n">
-        <v>73.9917951266205</v>
+        <v>79.05439094774633</v>
       </c>
       <c r="I17" t="n">
-        <v>73.9917951266205</v>
+        <v>79.05439094774633</v>
       </c>
       <c r="J17" t="n">
-        <v>262.6316941403564</v>
+        <v>285.1378091813608</v>
       </c>
       <c r="K17" t="n">
-        <v>666.0988071604011</v>
+        <v>714.7482357461192</v>
       </c>
       <c r="L17" t="n">
-        <v>1218.912065406599</v>
+        <v>1299.994586194453</v>
       </c>
       <c r="M17" t="n">
-        <v>1850.62987638991</v>
+        <v>1967.800461440477</v>
       </c>
       <c r="N17" t="n">
-        <v>2477.937544449755</v>
+        <v>2631.780136371717</v>
       </c>
       <c r="O17" t="n">
-        <v>3025.098749216832</v>
+        <v>3213.569677331767</v>
       </c>
       <c r="P17" t="n">
-        <v>3454.413795556125</v>
+        <v>3672.43920745689</v>
       </c>
       <c r="Q17" t="n">
-        <v>3699.589756331025</v>
+        <v>3939.809354728271</v>
       </c>
       <c r="R17" t="n">
-        <v>3699.589756331025</v>
+        <v>3952.719547387316</v>
       </c>
       <c r="S17" t="n">
-        <v>3543.374718827853</v>
+        <v>3801.282959480851</v>
       </c>
       <c r="T17" t="n">
-        <v>3543.374718827853</v>
+        <v>3587.401042372132</v>
       </c>
       <c r="U17" t="n">
-        <v>3543.374718827853</v>
+        <v>3333.726114804292</v>
       </c>
       <c r="V17" t="n">
-        <v>3212.311831484282</v>
+        <v>3002.663227460721</v>
       </c>
       <c r="W17" t="n">
-        <v>2859.543176214168</v>
+        <v>2649.894572190607</v>
       </c>
       <c r="X17" t="n">
-        <v>2486.077417953088</v>
+        <v>2649.894572190607</v>
       </c>
       <c r="Y17" t="n">
-        <v>2095.938085977276</v>
+        <v>2259.755240214795</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>987.4134795532265</v>
+        <v>987.4173550869474</v>
       </c>
       <c r="C18" t="n">
-        <v>812.9604502720995</v>
+        <v>812.9643258058204</v>
       </c>
       <c r="D18" t="n">
-        <v>664.0260406108482</v>
+        <v>664.0299161445691</v>
       </c>
       <c r="E18" t="n">
-        <v>504.7885856053927</v>
+        <v>504.7924611391136</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2540276322776</v>
+        <v>358.2579031659986</v>
       </c>
       <c r="G18" t="n">
-        <v>220.8126299914995</v>
+        <v>220.9287028234237</v>
       </c>
       <c r="H18" t="n">
-        <v>119.8966521363041</v>
+        <v>121.0963146640323</v>
       </c>
       <c r="I18" t="n">
-        <v>73.9917951266205</v>
+        <v>79.05439094774633</v>
       </c>
       <c r="J18" t="n">
-        <v>73.9917951266205</v>
+        <v>208.1028833519315</v>
       </c>
       <c r="K18" t="n">
-        <v>403.4201994324299</v>
+        <v>555.2881545269469</v>
       </c>
       <c r="L18" t="n">
-        <v>907.7817392985478</v>
+        <v>716.5034575102032</v>
       </c>
       <c r="M18" t="n">
-        <v>1548.327088765652</v>
+        <v>1384.911321550304</v>
       </c>
       <c r="N18" t="n">
-        <v>1746.983830418316</v>
+        <v>2086.716966229331</v>
       </c>
       <c r="O18" t="n">
-        <v>2296.419839171038</v>
+        <v>2272.392647913867</v>
       </c>
       <c r="P18" t="n">
-        <v>2633.599911365674</v>
+        <v>2402.080685679683</v>
       </c>
       <c r="Q18" t="n">
-        <v>2656.336852567651</v>
+        <v>2646.831022891829</v>
       </c>
       <c r="R18" t="n">
-        <v>2635.224952969837</v>
+        <v>2632.685197650874</v>
       </c>
       <c r="S18" t="n">
-        <v>2485.758163832472</v>
+        <v>2485.302424118291</v>
       </c>
       <c r="T18" t="n">
-        <v>2288.76886799256</v>
+        <v>2288.765362125083</v>
       </c>
       <c r="U18" t="n">
-        <v>2060.630080503725</v>
+        <v>2060.633956037446</v>
       </c>
       <c r="V18" t="n">
-        <v>1825.477972271983</v>
+        <v>1825.481847805704</v>
       </c>
       <c r="W18" t="n">
-        <v>1571.240615543781</v>
+        <v>1571.244491077502</v>
       </c>
       <c r="X18" t="n">
-        <v>1363.389115338248</v>
+        <v>1363.392990871969</v>
       </c>
       <c r="Y18" t="n">
-        <v>1155.628816573294</v>
+        <v>1155.632692107015</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>242.9279780545274</v>
+        <v>79.05439094774633</v>
       </c>
       <c r="C19" t="n">
-        <v>73.9917951266205</v>
+        <v>79.05439094774633</v>
       </c>
       <c r="D19" t="n">
-        <v>73.9917951266205</v>
+        <v>79.05439094774633</v>
       </c>
       <c r="E19" t="n">
-        <v>73.9917951266205</v>
+        <v>79.05439094774633</v>
       </c>
       <c r="F19" t="n">
-        <v>73.9917951266205</v>
+        <v>79.05439094774633</v>
       </c>
       <c r="G19" t="n">
-        <v>73.9917951266205</v>
+        <v>79.05439094774633</v>
       </c>
       <c r="H19" t="n">
-        <v>73.9917951266205</v>
+        <v>79.05439094774633</v>
       </c>
       <c r="I19" t="n">
-        <v>73.9917951266205</v>
+        <v>79.05439094774633</v>
       </c>
       <c r="J19" t="n">
-        <v>73.9917951266205</v>
+        <v>79.05439094774633</v>
       </c>
       <c r="K19" t="n">
-        <v>175.03972472223</v>
+        <v>190.8131924411721</v>
       </c>
       <c r="L19" t="n">
-        <v>359.872719623048</v>
+        <v>389.3524157470674</v>
       </c>
       <c r="M19" t="n">
-        <v>565.1423203422855</v>
+        <v>609.0733125644307</v>
       </c>
       <c r="N19" t="n">
-        <v>770.9656851783894</v>
+        <v>829.0043539776818</v>
       </c>
       <c r="O19" t="n">
-        <v>945.0605805669879</v>
+        <v>1016.129972078897</v>
       </c>
       <c r="P19" t="n">
-        <v>1070.508157165603</v>
+        <v>1152.727583085067</v>
       </c>
       <c r="Q19" t="n">
-        <v>1073.926476585963</v>
+        <v>1163.865608377946</v>
       </c>
       <c r="R19" t="n">
-        <v>1073.926476585963</v>
+        <v>1163.865608377946</v>
       </c>
       <c r="S19" t="n">
-        <v>1073.926476585963</v>
+        <v>1163.865608377946</v>
       </c>
       <c r="T19" t="n">
-        <v>848.2972798983279</v>
+        <v>1106.40073676971</v>
       </c>
       <c r="U19" t="n">
-        <v>559.1451034760078</v>
+        <v>817.2536910262545</v>
       </c>
       <c r="V19" t="n">
-        <v>559.1451034760078</v>
+        <v>817.2536910262545</v>
       </c>
       <c r="W19" t="n">
-        <v>559.1451034760078</v>
+        <v>527.8365209892938</v>
       </c>
       <c r="X19" t="n">
-        <v>331.1555525779904</v>
+        <v>299.8469700912764</v>
       </c>
       <c r="Y19" t="n">
-        <v>331.1555525779904</v>
+        <v>79.05439094774633</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2134.774920425097</v>
+        <v>2143.503901433245</v>
       </c>
       <c r="C20" t="n">
-        <v>1765.812403484685</v>
+        <v>1774.541384492833</v>
       </c>
       <c r="D20" t="n">
-        <v>1407.546704877934</v>
+        <v>1416.275685886083</v>
       </c>
       <c r="E20" t="n">
-        <v>1021.75845227969</v>
+        <v>1030.487433287838</v>
       </c>
       <c r="F20" t="n">
-        <v>610.7725474900825</v>
+        <v>812.0080417938184</v>
       </c>
       <c r="G20" t="n">
-        <v>193.68476572651</v>
+        <v>395.1299561178688</v>
       </c>
       <c r="H20" t="n">
-        <v>193.68476572651</v>
+        <v>79.05439094774633</v>
       </c>
       <c r="I20" t="n">
-        <v>73.9917951266205</v>
+        <v>79.05439094774633</v>
       </c>
       <c r="J20" t="n">
-        <v>262.6316941403561</v>
+        <v>285.1378091813608</v>
       </c>
       <c r="K20" t="n">
-        <v>666.0988071604011</v>
+        <v>714.7482357461192</v>
       </c>
       <c r="L20" t="n">
-        <v>1218.912065406599</v>
+        <v>1299.994586194453</v>
       </c>
       <c r="M20" t="n">
-        <v>1850.62987638991</v>
+        <v>1967.800461440477</v>
       </c>
       <c r="N20" t="n">
-        <v>2477.937544449755</v>
+        <v>2631.780136371717</v>
       </c>
       <c r="O20" t="n">
-        <v>3025.098749216832</v>
+        <v>3213.569677331766</v>
       </c>
       <c r="P20" t="n">
-        <v>3454.413795556125</v>
+        <v>3672.43920745689</v>
       </c>
       <c r="Q20" t="n">
-        <v>3699.589756331025</v>
+        <v>3939.809354728271</v>
       </c>
       <c r="R20" t="n">
-        <v>3699.589756331025</v>
+        <v>3952.719547387316</v>
       </c>
       <c r="S20" t="n">
-        <v>3699.589756331025</v>
+        <v>3801.282959480851</v>
       </c>
       <c r="T20" t="n">
-        <v>3699.589756331025</v>
+        <v>3587.401042372132</v>
       </c>
       <c r="U20" t="n">
-        <v>3699.589756331025</v>
+        <v>3587.401042372132</v>
       </c>
       <c r="V20" t="n">
-        <v>3637.748505996225</v>
+        <v>3256.338155028561</v>
       </c>
       <c r="W20" t="n">
-        <v>3284.97985072611</v>
+        <v>2903.569499758446</v>
       </c>
       <c r="X20" t="n">
-        <v>2911.51409246503</v>
+        <v>2530.103741497367</v>
       </c>
       <c r="Y20" t="n">
-        <v>2521.374760489219</v>
+        <v>2530.103741497367</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>987.4134795532265</v>
+        <v>987.4173550869474</v>
       </c>
       <c r="C21" t="n">
-        <v>812.9604502720995</v>
+        <v>812.9643258058204</v>
       </c>
       <c r="D21" t="n">
-        <v>664.0260406108482</v>
+        <v>664.0299161445691</v>
       </c>
       <c r="E21" t="n">
-        <v>504.7885856053927</v>
+        <v>504.7924611391136</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2540276322776</v>
+        <v>358.2579031659986</v>
       </c>
       <c r="G21" t="n">
-        <v>220.8126299914996</v>
+        <v>220.9287028234237</v>
       </c>
       <c r="H21" t="n">
-        <v>119.8966521363041</v>
+        <v>121.0963146640323</v>
       </c>
       <c r="I21" t="n">
-        <v>73.9917951266205</v>
+        <v>79.05439094774633</v>
       </c>
       <c r="J21" t="n">
-        <v>192.6510469835158</v>
+        <v>208.1028833519315</v>
       </c>
       <c r="K21" t="n">
-        <v>260.2588666468723</v>
+        <v>555.2881545269469</v>
       </c>
       <c r="L21" t="n">
-        <v>764.6204065129901</v>
+        <v>1083.525993232189</v>
       </c>
       <c r="M21" t="n">
-        <v>1405.165755980094</v>
+        <v>1290.88584415979</v>
       </c>
       <c r="N21" t="n">
-        <v>1660.196134132116</v>
+        <v>1518.142538238699</v>
       </c>
       <c r="O21" t="n">
-        <v>2209.632142884838</v>
+        <v>1957.114506960329</v>
       </c>
       <c r="P21" t="n">
-        <v>2633.599911365674</v>
+        <v>2402.080685679683</v>
       </c>
       <c r="Q21" t="n">
-        <v>2656.336852567651</v>
+        <v>2646.831022891829</v>
       </c>
       <c r="R21" t="n">
-        <v>2635.224952969837</v>
+        <v>2632.685197650874</v>
       </c>
       <c r="S21" t="n">
-        <v>2485.758163832472</v>
+        <v>2485.302424118291</v>
       </c>
       <c r="T21" t="n">
-        <v>2288.76886799256</v>
+        <v>2288.765362125083</v>
       </c>
       <c r="U21" t="n">
-        <v>2060.630080503725</v>
+        <v>2060.633956037446</v>
       </c>
       <c r="V21" t="n">
-        <v>1825.477972271983</v>
+        <v>1825.481847805704</v>
       </c>
       <c r="W21" t="n">
-        <v>1571.240615543781</v>
+        <v>1571.244491077502</v>
       </c>
       <c r="X21" t="n">
-        <v>1363.389115338248</v>
+        <v>1363.392990871969</v>
       </c>
       <c r="Y21" t="n">
-        <v>1155.628816573294</v>
+        <v>1155.632692107015</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>539.9345649647735</v>
+        <v>79.05439094774633</v>
       </c>
       <c r="C22" t="n">
-        <v>370.9983820368666</v>
+        <v>79.05439094774633</v>
       </c>
       <c r="D22" t="n">
-        <v>220.8817426245309</v>
+        <v>79.05439094774633</v>
       </c>
       <c r="E22" t="n">
-        <v>220.8817426245309</v>
+        <v>79.05439094774633</v>
       </c>
       <c r="F22" t="n">
-        <v>73.9917951266205</v>
+        <v>79.05439094774633</v>
       </c>
       <c r="G22" t="n">
-        <v>73.9917951266205</v>
+        <v>79.05439094774633</v>
       </c>
       <c r="H22" t="n">
-        <v>73.9917951266205</v>
+        <v>79.05439094774633</v>
       </c>
       <c r="I22" t="n">
-        <v>73.9917951266205</v>
+        <v>79.05439094774633</v>
       </c>
       <c r="J22" t="n">
-        <v>73.9917951266205</v>
+        <v>79.05439094774633</v>
       </c>
       <c r="K22" t="n">
-        <v>175.03972472223</v>
+        <v>190.8131924411721</v>
       </c>
       <c r="L22" t="n">
-        <v>359.8727196230479</v>
+        <v>389.3524157470674</v>
       </c>
       <c r="M22" t="n">
-        <v>565.1423203422854</v>
+        <v>609.0733125644307</v>
       </c>
       <c r="N22" t="n">
-        <v>770.9656851783893</v>
+        <v>829.0043539776818</v>
       </c>
       <c r="O22" t="n">
-        <v>945.0605805669878</v>
+        <v>1016.129972078897</v>
       </c>
       <c r="P22" t="n">
-        <v>1070.508157165603</v>
+        <v>1152.727583085067</v>
       </c>
       <c r="Q22" t="n">
-        <v>1073.926476585963</v>
+        <v>1163.865608377946</v>
       </c>
       <c r="R22" t="n">
-        <v>943.4485153053654</v>
+        <v>1037.617036708561</v>
       </c>
       <c r="S22" t="n">
-        <v>736.0082305577707</v>
+        <v>1029.761683237189</v>
       </c>
       <c r="T22" t="n">
-        <v>721.5830297950132</v>
+        <v>804.5343897273279</v>
       </c>
       <c r="U22" t="n">
-        <v>721.5830297950132</v>
+        <v>515.3873439838729</v>
       </c>
       <c r="V22" t="n">
-        <v>721.5830297950132</v>
+        <v>260.702855777986</v>
       </c>
       <c r="W22" t="n">
-        <v>721.5830297950132</v>
+        <v>260.702855777986</v>
       </c>
       <c r="X22" t="n">
-        <v>721.5830297950132</v>
+        <v>260.702855777986</v>
       </c>
       <c r="Y22" t="n">
-        <v>721.5830297950132</v>
+        <v>260.702855777986</v>
       </c>
     </row>
     <row r="23">
@@ -5968,70 +5968,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6056,34 +6056,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L24" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M24" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>4660.934562929845</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T25" t="n">
-        <v>4437.14914771935</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>4148.020508932908</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>3893.336020727022</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>3603.918850690061</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="26">
@@ -6205,37 +6205,37 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
         <v>3183.709822619127</v>
@@ -6244,31 +6244,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6293,34 +6293,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>988.9950526279305</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>1209.787631771461</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>1209.787631771461</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>1209.787631771461</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>988.9950526279305</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6442,70 +6442,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155877</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6530,34 +6530,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>321.6797126268225</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>152.7435296989156</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>152.7435296989156</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>731.3177283550796</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>731.3177283550796</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>503.3281774570622</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>503.3281774570622</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6691,19 +6691,19 @@
         <v>904.3190116155886</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6785,16 +6785,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1029.666285013068</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>860.7301020851612</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>710.6134626728254</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
         <v>97.21709146028584</v>
@@ -6891,19 +6891,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V34" t="n">
-        <v>1498.916270557902</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W34" t="n">
-        <v>1498.916270557902</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X34" t="n">
-        <v>1432.107328986838</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y34" t="n">
-        <v>1211.314749843308</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
     <row r="35">
@@ -6919,25 +6919,25 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514083</v>
@@ -6955,31 +6955,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7004,25 +7004,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636248</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
         <v>1228.513823643586</v>
@@ -7034,10 +7034,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>757.4105722479405</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>757.4105722479405</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>607.2939328356048</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1387.841167119728</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T37" t="n">
-        <v>1387.841167119728</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>1387.841167119728</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>1387.841167119728</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>1387.841167119728</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>1159.85161622171</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>939.0590370781803</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7153,28 +7153,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514083</v>
@@ -7192,31 +7192,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7241,25 +7241,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636248</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
         <v>1228.513823643586</v>
@@ -7271,10 +7271,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3941.006808105544</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="C40" t="n">
-        <v>3772.070625177637</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="D40" t="n">
-        <v>3621.953985765301</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>3474.040892182908</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>4860.854573014291</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V40" t="n">
-        <v>4860.854573014291</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W40" t="n">
-        <v>4571.437402977331</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X40" t="n">
-        <v>4343.447852079314</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y40" t="n">
-        <v>4122.655272935784</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
     <row r="41">
@@ -7402,10 +7402,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028562</v>
@@ -7420,16 +7420,16 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>912.3640997703106</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>912.3640997703106</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1387.841167119728</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T43" t="n">
-        <v>1387.841167119728</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>1387.841167119728</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>1133.156678913841</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>1133.156678913841</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>1133.156678913841</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>912.3640997703106</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7633,31 +7633,31 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N44" t="n">
         <v>3183.709822619127</v>
@@ -7666,7 +7666,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7690,10 +7690,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7733,16 +7733,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>1196.088769018224</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
         <v>2317.834075963124</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>807.0580565471719</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C46" t="n">
-        <v>638.121873619265</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D46" t="n">
-        <v>488.0052342069292</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E46" t="n">
-        <v>340.0921406245361</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F46" t="n">
-        <v>193.2021931266258</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G46" t="n">
         <v>97.21709146028584</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1098.622710169755</v>
       </c>
       <c r="U46" t="n">
-        <v>1498.916270557902</v>
+        <v>809.4940713833126</v>
       </c>
       <c r="V46" t="n">
-        <v>1498.916270557902</v>
+        <v>554.8095831774258</v>
       </c>
       <c r="W46" t="n">
-        <v>1209.499100520942</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="X46" t="n">
-        <v>1209.499100520942</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="Y46" t="n">
-        <v>988.7065213774116</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8069,10 +8069,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028826</v>
       </c>
       <c r="O3" t="n">
-        <v>274.4264991783519</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.906554245176</v>
+        <v>435.9238900028825</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8534,7 +8534,7 @@
         <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K12" t="n">
-        <v>221.0467526719081</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928383</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9017,16 +9017,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>15.92129162592693</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,28 +9242,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>6.233205181928668</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0.110511240847103</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>230.7984289569069</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9482,25 +9482,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>56.94306717106863</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>255.8548353910045</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9722,7 +9722,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9734,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9959,7 +9959,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>288.4091825776758</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10196,7 +10196,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>288.4091825776758</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10433,7 +10433,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10445,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11381,7 +11381,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>277.6717966208069</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -22546,16 +22546,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>144.475168643891</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -22606,13 +22606,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22704,16 +22704,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>128.0571403890124</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22749,31 +22749,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22786,7 +22786,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -22798,13 +22798,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22831,7 +22831,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -22846,13 +22846,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>228.530678854724</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22941,16 +22941,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>128.0571403890124</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -22986,31 +22986,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23023,25 +23023,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,10 +23071,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>61.26961595716902</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -23089,7 +23089,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23178,31 +23178,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23223,10 +23223,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -23235,19 +23235,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>56.01837628787163</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,13 +23305,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>189.504425431147</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>251.2241675082893</v>
@@ -23323,10 +23323,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>3.058140816671369</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23439,7 +23439,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,25 +23460,25 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S13" t="n">
-        <v>197.662087304794</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>157.4983735401874</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23500,22 +23500,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>89.79231049789928</v>
+        <v>277.6953495219337</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,22 +23542,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>2.232782772392568</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23667,16 +23667,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923382</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U16" t="n">
-        <v>277.0062774114808</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23746,13 +23746,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>302.6862668729318</v>
+        <v>145.311654913956</v>
       </c>
       <c r="H17" t="n">
-        <v>315.0408840752156</v>
+        <v>312.9148095184212</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4960408938905</v>
+        <v>110.4925755599893</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,10 +23785,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23797,7 +23797,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>92.48668140370893</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23904,16 +23904,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.9207765545704</v>
+        <v>166.8276547331671</v>
       </c>
       <c r="H19" t="n">
-        <v>152.7120966692326</v>
+        <v>151.8841590207553</v>
       </c>
       <c r="I19" t="n">
-        <v>123.2665578794171</v>
+        <v>120.4661307412137</v>
       </c>
       <c r="J19" t="n">
-        <v>17.69584188176917</v>
+        <v>11.11212910855049</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>129.1731816677914</v>
+        <v>124.9860859526905</v>
       </c>
       <c r="S19" t="n">
-        <v>205.3658819001187</v>
+        <v>203.7430225216617</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>166.0847976826088</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,13 +23952,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23980,16 +23980,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>190.5814481626318</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>110.4925755599893</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,16 +24019,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>154.6528871281403</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.1547862223006</v>
+        <v>251.1381782921609</v>
       </c>
       <c r="V20" t="n">
-        <v>266.5294206386825</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24037,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24129,28 +24129,28 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.9207765545704</v>
+        <v>166.8276547331671</v>
       </c>
       <c r="H22" t="n">
-        <v>152.7120966692326</v>
+        <v>151.8841590207553</v>
       </c>
       <c r="I22" t="n">
-        <v>123.2665578794171</v>
+        <v>120.4661307412137</v>
       </c>
       <c r="J22" t="n">
-        <v>17.69584188176918</v>
+        <v>11.11212910855049</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24177,16 +24177,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>195.9662225850033</v>
       </c>
       <c r="T22" t="n">
-        <v>209.0919559656288</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24223,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24463,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>150.6837655255582</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,25 +24651,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>91.46278879032572</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24888,10 +24888,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25074,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>61.34209567542518</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25131,16 +25131,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>159.5688032336831</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25156,7 +25156,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>67.28453198018913</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25411,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>30.12558851170024</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>130.6844047393603</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
@@ -25605,10 +25605,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>59.30158775597397</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26022,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>71.46831781370108</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>133.1420986615191</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>702824.1735731203</v>
+        <v>994108.0333724422</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>702824.1735731203</v>
+        <v>994108.0333724422</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>702824.1735731203</v>
+        <v>994108.0333724422</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>702824.1735731203</v>
+        <v>702824.1735731201</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>702824.1735731203</v>
+        <v>818599.326826747</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>818599.3268267463</v>
+        <v>846283.8615356513</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>818599.3268267463</v>
+        <v>846283.8615356511</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>945598.6813359334</v>
+        <v>945598.6813359333</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>945598.6813359334</v>
+        <v>945598.6813359333</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>945598.6813359333</v>
+        <v>945598.6813359334</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>945598.6813359334</v>
+        <v>945598.6813359333</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>318067.8710173332</v>
+        <v>451572.9734253559</v>
       </c>
       <c r="C2" t="n">
-        <v>318067.8710173334</v>
+        <v>451572.973425356</v>
       </c>
       <c r="D2" t="n">
-        <v>318067.8710173335</v>
+        <v>451572.973425356</v>
       </c>
       <c r="E2" t="n">
-        <v>318067.8710173335</v>
+        <v>318067.8710173333</v>
       </c>
       <c r="F2" t="n">
-        <v>318067.8710173335</v>
+        <v>371509.2212626562</v>
       </c>
       <c r="G2" t="n">
-        <v>371509.2212626557</v>
+        <v>384288.3862804903</v>
       </c>
       <c r="H2" t="n">
-        <v>371509.2212626557</v>
+        <v>384288.3862804901</v>
       </c>
       <c r="I2" t="n">
+        <v>430131.9657114797</v>
+      </c>
+      <c r="J2" t="n">
         <v>430131.9657114798</v>
       </c>
-      <c r="J2" t="n">
-        <v>430131.9657114797</v>
-      </c>
       <c r="K2" t="n">
-        <v>430131.9657114797</v>
+        <v>430131.9657114798</v>
       </c>
       <c r="L2" t="n">
         <v>430131.9657114798</v>
       </c>
       <c r="M2" t="n">
-        <v>430131.9657114799</v>
+        <v>430131.9657114798</v>
       </c>
       <c r="N2" t="n">
         <v>430131.9657114798</v>
       </c>
       <c r="O2" t="n">
-        <v>430131.9657114799</v>
+        <v>430131.9657114798</v>
       </c>
       <c r="P2" t="n">
-        <v>430131.9657114799</v>
+        <v>430131.9657114798</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26377,19 +26377,19 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>242330.9539870012</v>
       </c>
       <c r="G3" t="n">
-        <v>236417.6520004548</v>
+        <v>57494.41823181645</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>255532.1595990993</v>
+        <v>199831.8565861949</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26401,10 +26401,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>61381.19620826765</v>
       </c>
       <c r="O3" t="n">
-        <v>60309.58713704784</v>
+        <v>15228.98433687142</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,34 +26417,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9371.018034361483</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="C4" t="n">
-        <v>9371.018034361485</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="D4" t="n">
-        <v>9371.018034361483</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
         <v>9371.018034361483</v>
       </c>
       <c r="F4" t="n">
-        <v>9371.018034361485</v>
+        <v>8673.279618076545</v>
       </c>
       <c r="G4" t="n">
-        <v>8673.279618076551</v>
+        <v>8508.06865831612</v>
       </c>
       <c r="H4" t="n">
-        <v>8673.279618076551</v>
+        <v>8508.068658316122</v>
       </c>
       <c r="I4" t="n">
         <v>7916.731656007484</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="K4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="L4" t="n">
         <v>7916.731656007484</v>
@@ -26469,43 +26469,43 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>82859.07806340946</v>
+      </c>
+      <c r="C5" t="n">
+        <v>82859.07806340946</v>
+      </c>
+      <c r="D5" t="n">
         <v>82859.07806340947</v>
       </c>
-      <c r="C5" t="n">
-        <v>82859.07806340947</v>
-      </c>
-      <c r="D5" t="n">
-        <v>82859.07806340946</v>
-      </c>
       <c r="E5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340948</v>
       </c>
       <c r="F5" t="n">
-        <v>49231.47806340947</v>
+        <v>69171.54328360151</v>
       </c>
       <c r="G5" t="n">
-        <v>69171.54328360136</v>
+        <v>74144.87427222253</v>
       </c>
       <c r="H5" t="n">
-        <v>69171.54328360136</v>
+        <v>74144.87427222253</v>
       </c>
       <c r="I5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="J5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="J5" t="n">
-        <v>91987.32594871661</v>
-      </c>
       <c r="K5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-364130.1042949823</v>
+        <v>-369171.0325685188</v>
       </c>
       <c r="C6" t="n">
-        <v>225837.7749195624</v>
+        <v>220796.8466460257</v>
       </c>
       <c r="D6" t="n">
-        <v>225837.7749195625</v>
+        <v>220796.8466460257</v>
       </c>
       <c r="E6" t="n">
-        <v>259465.3749195625</v>
+        <v>253396.9611737431</v>
       </c>
       <c r="F6" t="n">
-        <v>259465.3749195626</v>
+        <v>47694.18291203599</v>
       </c>
       <c r="G6" t="n">
-        <v>57246.746360523</v>
+        <v>241082.6347933687</v>
       </c>
       <c r="H6" t="n">
-        <v>293664.3983609778</v>
+        <v>298577.0530251849</v>
       </c>
       <c r="I6" t="n">
-        <v>74695.74850765635</v>
+        <v>129421.4602608391</v>
       </c>
       <c r="J6" t="n">
-        <v>153804.6889141626</v>
+        <v>152830.0976544411</v>
       </c>
       <c r="K6" t="n">
-        <v>330227.9081067556</v>
+        <v>329253.316847034</v>
       </c>
       <c r="L6" t="n">
-        <v>330227.9081067557</v>
+        <v>329253.316847034</v>
       </c>
       <c r="M6" t="n">
-        <v>330227.9081067558</v>
+        <v>329253.316847034</v>
       </c>
       <c r="N6" t="n">
-        <v>330227.9081067558</v>
+        <v>267872.1206387664</v>
       </c>
       <c r="O6" t="n">
-        <v>269918.320969708</v>
+        <v>314024.3325101626</v>
       </c>
       <c r="P6" t="n">
-        <v>330227.9081067558</v>
+        <v>329253.316847034</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
@@ -26746,16 +26746,16 @@
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170867</v>
+        <v>593.4761003380651</v>
       </c>
       <c r="G3" t="n">
-        <v>593.4761003380636</v>
+        <v>645.1163831162994</v>
       </c>
       <c r="H3" t="n">
-        <v>593.4761003380635</v>
+        <v>645.1163831162994</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="C4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="D4" t="n">
         <v>674.2872727545557</v>
-      </c>
-      <c r="C4" t="n">
-        <v>674.2872727545557</v>
-      </c>
-      <c r="D4" t="n">
-        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>674.2872727545557</v>
       </c>
       <c r="F4" t="n">
-        <v>674.2872727545557</v>
+        <v>924.8974390827582</v>
       </c>
       <c r="G4" t="n">
-        <v>924.8974390827563</v>
+        <v>988.179886846829</v>
       </c>
       <c r="H4" t="n">
-        <v>924.8974390827563</v>
+        <v>988.179886846829</v>
       </c>
       <c r="I4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26971,16 +26971,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>215.7324361209783</v>
       </c>
       <c r="G3" t="n">
-        <v>215.7324361209769</v>
+        <v>51.64028277823434</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>236.9063051160367</v>
+        <v>185.2660223378008</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,32 +27011,32 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>250.6101663282025</v>
+      </c>
+      <c r="G4" t="n">
+        <v>63.28244776407087</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>227.0337564067438</v>
+      </c>
+      <c r="J4" t="n">
         <v>674.2872727545557</v>
       </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>250.6101663282005</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>290.3162041708168</v>
-      </c>
-      <c r="J4" t="n">
-        <v>674.2872727545555</v>
-      </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
@@ -27047,10 +27047,10 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>250.6101663282025</v>
       </c>
       <c r="O4" t="n">
-        <v>250.6101663282008</v>
+        <v>63.28244776407087</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27269,10 +27269,10 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>250.6101663282025</v>
       </c>
       <c r="O4" t="n">
-        <v>250.6101663282005</v>
+        <v>63.28244776407087</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27384,19 +27384,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>128.1430790558417</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,31 +27536,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>56.91050813175934</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27621,16 +27621,16 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>222.3303945591877</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27672,19 +27672,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>146.4426408333225</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27794,10 +27794,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>218.8910649275538</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,22 +27900,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>152.7829238717193</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28028,10 +28028,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28055,31 +28055,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31758,7 +31758,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
@@ -31767,34 +31767,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L11" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M11" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N11" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P11" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q11" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,40 +31831,40 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I12" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396477</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K12" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L12" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M12" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N12" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O12" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P12" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q12" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S12" t="n">
         <v>15.09192847131473</v>
@@ -31873,7 +31873,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I13" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L13" t="n">
         <v>101.2724571246924</v>
@@ -31934,25 +31934,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S13" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.518567494340046</v>
+        <v>2.38583356919825</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935141</v>
+        <v>24.43391804055158</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554468</v>
+        <v>91.9798486765156</v>
       </c>
       <c r="J14" t="n">
-        <v>128.8865178727436</v>
+        <v>202.4946418937401</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081578</v>
+        <v>303.4869768779021</v>
       </c>
       <c r="L14" t="n">
-        <v>239.641339863067</v>
+        <v>376.5024309712531</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405368</v>
+        <v>418.9314987074824</v>
       </c>
       <c r="N14" t="n">
-        <v>270.9617944338304</v>
+        <v>425.710248335967</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119866</v>
+        <v>401.9861157822519</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954667</v>
+        <v>343.0858495426701</v>
       </c>
       <c r="Q14" t="n">
-        <v>163.9882055044137</v>
+        <v>257.6431848457577</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633799</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727383</v>
+        <v>54.36718245810517</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473554</v>
+        <v>10.44398644916534</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1908666855358599</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141111</v>
+        <v>1.276533498840366</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188916</v>
+        <v>12.32862615985301</v>
       </c>
       <c r="I15" t="n">
-        <v>27.9744128689069</v>
+        <v>43.95082441182841</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396477</v>
+        <v>120.6044214847383</v>
       </c>
       <c r="K15" t="n">
-        <v>131.2017781649102</v>
+        <v>206.1321659070428</v>
       </c>
       <c r="L15" t="n">
-        <v>176.4169820478007</v>
+        <v>277.1701353512822</v>
       </c>
       <c r="M15" t="n">
-        <v>205.8702969983122</v>
+        <v>323.4444746842454</v>
       </c>
       <c r="N15" t="n">
-        <v>211.31907117367</v>
+        <v>332.0050874900653</v>
       </c>
       <c r="O15" t="n">
-        <v>193.3156655923047</v>
+        <v>303.7197925947077</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479578</v>
+        <v>243.7619099671574</v>
       </c>
       <c r="Q15" t="n">
-        <v>103.7155811639065</v>
+        <v>162.9483813607457</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034983</v>
+        <v>79.25705355080804</v>
       </c>
       <c r="S15" t="n">
-        <v>15.09192847131473</v>
+        <v>23.71104985784626</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372666</v>
+        <v>5.145325813308316</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.08398246702897151</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078612</v>
+        <v>1.070202803888314</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644443</v>
+        <v>9.515075838207014</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492005</v>
+        <v>32.18391704784131</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813578</v>
+        <v>75.66333823490379</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302239</v>
+        <v>124.3381075790241</v>
       </c>
       <c r="L16" t="n">
-        <v>101.2724571246924</v>
+        <v>159.1099695889953</v>
       </c>
       <c r="M16" t="n">
-        <v>106.777606591725</v>
+        <v>167.7591540676927</v>
       </c>
       <c r="N16" t="n">
-        <v>104.2386737666594</v>
+        <v>163.7702163441091</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175845</v>
+        <v>151.2683017714137</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383801</v>
+        <v>129.436164572092</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678009</v>
+        <v>89.61489115104781</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701164</v>
+        <v>48.12020970937817</v>
       </c>
       <c r="S16" t="n">
-        <v>11.87105908695336</v>
+        <v>18.65071613685361</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197224</v>
+        <v>4.572684707522795</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.0583746983939081</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.385833569198244</v>
+        <v>2.59343269594492</v>
       </c>
       <c r="H17" t="n">
-        <v>24.43391804055152</v>
+        <v>26.55999259734592</v>
       </c>
       <c r="I17" t="n">
-        <v>91.97984867651539</v>
+        <v>99.98331401041663</v>
       </c>
       <c r="J17" t="n">
-        <v>202.4946418937396</v>
+        <v>220.1143582774554</v>
       </c>
       <c r="K17" t="n">
-        <v>303.4869768779013</v>
+        <v>329.8943642968039</v>
       </c>
       <c r="L17" t="n">
-        <v>376.5024309712522</v>
+        <v>409.2631301653283</v>
       </c>
       <c r="M17" t="n">
-        <v>418.9314987074814</v>
+        <v>455.3840888718388</v>
       </c>
       <c r="N17" t="n">
-        <v>425.710248335966</v>
+        <v>462.7526795191924</v>
       </c>
       <c r="O17" t="n">
-        <v>401.9861157822509</v>
+        <v>436.96423314889</v>
       </c>
       <c r="P17" t="n">
-        <v>343.0858495426692</v>
+        <v>372.9388634677497</v>
       </c>
       <c r="Q17" t="n">
-        <v>257.643184845757</v>
+        <v>280.0615550442222</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411493</v>
+        <v>162.9097165866502</v>
       </c>
       <c r="S17" t="n">
-        <v>54.36718245810503</v>
+        <v>59.09784755884493</v>
       </c>
       <c r="T17" t="n">
-        <v>10.44398644916532</v>
+        <v>11.3527516264989</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1908666855358595</v>
+        <v>0.2074746156755936</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.276533498840363</v>
+        <v>1.387608824061474</v>
       </c>
       <c r="H18" t="n">
-        <v>12.32862615985298</v>
+        <v>13.40137995869898</v>
       </c>
       <c r="I18" t="n">
-        <v>43.9508244118283</v>
+        <v>47.77512837229199</v>
       </c>
       <c r="J18" t="n">
-        <v>120.604421484738</v>
+        <v>131.0986038557378</v>
       </c>
       <c r="K18" t="n">
-        <v>206.1321659070423</v>
+        <v>224.0683950678566</v>
       </c>
       <c r="L18" t="n">
-        <v>277.1701353512815</v>
+        <v>301.2876089261547</v>
       </c>
       <c r="M18" t="n">
-        <v>323.4444746842446</v>
+        <v>351.5884287983831</v>
       </c>
       <c r="N18" t="n">
-        <v>332.0050874900645</v>
+        <v>360.8939283246551</v>
       </c>
       <c r="O18" t="n">
-        <v>303.7197925947069</v>
+        <v>330.1474380651877</v>
       </c>
       <c r="P18" t="n">
-        <v>243.7619099671568</v>
+        <v>264.9724253595986</v>
       </c>
       <c r="Q18" t="n">
-        <v>162.9483813607453</v>
+        <v>177.1270491907243</v>
       </c>
       <c r="R18" t="n">
-        <v>79.25705355080784</v>
+        <v>86.15346716409753</v>
       </c>
       <c r="S18" t="n">
-        <v>23.71104985784621</v>
+        <v>25.77422530658044</v>
       </c>
       <c r="T18" t="n">
-        <v>5.145325813308304</v>
+        <v>5.593037321546028</v>
       </c>
       <c r="U18" t="n">
-        <v>0.0839824670289713</v>
+        <v>0.0912900542145707</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.070202803888311</v>
+        <v>1.163324625291687</v>
       </c>
       <c r="H19" t="n">
-        <v>9.515075838206993</v>
+        <v>10.34301348668428</v>
       </c>
       <c r="I19" t="n">
-        <v>32.18391704784123</v>
+        <v>34.98434418604457</v>
       </c>
       <c r="J19" t="n">
-        <v>75.66333823490361</v>
+        <v>82.24705100812228</v>
       </c>
       <c r="K19" t="n">
-        <v>124.3381075790238</v>
+        <v>135.1571701020706</v>
       </c>
       <c r="L19" t="n">
-        <v>159.109969588995</v>
+        <v>172.9546447456387</v>
       </c>
       <c r="M19" t="n">
-        <v>167.7591540676923</v>
+        <v>182.3564228536778</v>
       </c>
       <c r="N19" t="n">
-        <v>163.7702163441087</v>
+        <v>178.0203947048635</v>
       </c>
       <c r="O19" t="n">
-        <v>151.2683017714134</v>
+        <v>164.4306479457742</v>
       </c>
       <c r="P19" t="n">
-        <v>129.4361645720917</v>
+        <v>140.6988255898237</v>
       </c>
       <c r="Q19" t="n">
-        <v>89.6148911510476</v>
+        <v>97.4125738505612</v>
       </c>
       <c r="R19" t="n">
-        <v>48.12020970937806</v>
+        <v>52.30730542447895</v>
       </c>
       <c r="S19" t="n">
-        <v>18.65071613685356</v>
+        <v>20.27357551531058</v>
       </c>
       <c r="T19" t="n">
-        <v>4.572684707522783</v>
+        <v>4.970568853519026</v>
       </c>
       <c r="U19" t="n">
-        <v>0.05837469839390796</v>
+        <v>0.06345407047045575</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.385833569198244</v>
+        <v>2.59343269594492</v>
       </c>
       <c r="H20" t="n">
-        <v>24.43391804055151</v>
+        <v>26.55999259734592</v>
       </c>
       <c r="I20" t="n">
-        <v>91.97984867651536</v>
+        <v>99.98331401041663</v>
       </c>
       <c r="J20" t="n">
-        <v>202.4946418937396</v>
+        <v>220.1143582774554</v>
       </c>
       <c r="K20" t="n">
-        <v>303.4869768779013</v>
+        <v>329.8943642968039</v>
       </c>
       <c r="L20" t="n">
-        <v>376.5024309712521</v>
+        <v>409.2631301653283</v>
       </c>
       <c r="M20" t="n">
-        <v>418.9314987074814</v>
+        <v>455.3840888718388</v>
       </c>
       <c r="N20" t="n">
-        <v>425.7102483359659</v>
+        <v>462.7526795191924</v>
       </c>
       <c r="O20" t="n">
-        <v>401.9861157822508</v>
+        <v>436.96423314889</v>
       </c>
       <c r="P20" t="n">
-        <v>343.0858495426692</v>
+        <v>372.9388634677497</v>
       </c>
       <c r="Q20" t="n">
-        <v>257.643184845757</v>
+        <v>280.0615550442222</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411493</v>
+        <v>162.9097165866502</v>
       </c>
       <c r="S20" t="n">
-        <v>54.36718245810503</v>
+        <v>59.09784755884493</v>
       </c>
       <c r="T20" t="n">
-        <v>10.44398644916532</v>
+        <v>11.3527516264989</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1908666855358594</v>
+        <v>0.2074746156755936</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.276533498840363</v>
+        <v>1.387608824061474</v>
       </c>
       <c r="H21" t="n">
-        <v>12.32862615985298</v>
+        <v>13.40137995869898</v>
       </c>
       <c r="I21" t="n">
-        <v>43.95082441182829</v>
+        <v>47.77512837229199</v>
       </c>
       <c r="J21" t="n">
-        <v>120.604421484738</v>
+        <v>131.0986038557378</v>
       </c>
       <c r="K21" t="n">
-        <v>206.1321659070423</v>
+        <v>224.0683950678566</v>
       </c>
       <c r="L21" t="n">
-        <v>277.1701353512815</v>
+        <v>301.2876089261547</v>
       </c>
       <c r="M21" t="n">
-        <v>323.4444746842445</v>
+        <v>351.5884287983831</v>
       </c>
       <c r="N21" t="n">
-        <v>332.0050874900644</v>
+        <v>360.8939283246551</v>
       </c>
       <c r="O21" t="n">
-        <v>303.7197925947069</v>
+        <v>330.1474380651877</v>
       </c>
       <c r="P21" t="n">
-        <v>243.7619099671567</v>
+        <v>264.9724253595986</v>
       </c>
       <c r="Q21" t="n">
-        <v>162.9483813607453</v>
+        <v>177.1270491907243</v>
       </c>
       <c r="R21" t="n">
-        <v>79.25705355080783</v>
+        <v>86.15346716409753</v>
       </c>
       <c r="S21" t="n">
-        <v>23.7110498578462</v>
+        <v>25.77422530658044</v>
       </c>
       <c r="T21" t="n">
-        <v>5.145325813308303</v>
+        <v>5.593037321546028</v>
       </c>
       <c r="U21" t="n">
-        <v>0.08398246702897129</v>
+        <v>0.0912900542145707</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.070202803888311</v>
+        <v>1.163324625291687</v>
       </c>
       <c r="H22" t="n">
-        <v>9.515075838206991</v>
+        <v>10.34301348668428</v>
       </c>
       <c r="I22" t="n">
-        <v>32.18391704784122</v>
+        <v>34.98434418604457</v>
       </c>
       <c r="J22" t="n">
-        <v>75.66333823490359</v>
+        <v>82.24705100812228</v>
       </c>
       <c r="K22" t="n">
-        <v>124.3381075790238</v>
+        <v>135.1571701020706</v>
       </c>
       <c r="L22" t="n">
-        <v>159.1099695889949</v>
+        <v>172.9546447456387</v>
       </c>
       <c r="M22" t="n">
-        <v>167.7591540676922</v>
+        <v>182.3564228536778</v>
       </c>
       <c r="N22" t="n">
-        <v>163.7702163441087</v>
+        <v>178.0203947048635</v>
       </c>
       <c r="O22" t="n">
-        <v>151.2683017714133</v>
+        <v>164.4306479457742</v>
       </c>
       <c r="P22" t="n">
-        <v>129.4361645720917</v>
+        <v>140.6988255898237</v>
       </c>
       <c r="Q22" t="n">
-        <v>89.61489115104759</v>
+        <v>97.4125738505612</v>
       </c>
       <c r="R22" t="n">
-        <v>48.12020970937805</v>
+        <v>52.30730542447895</v>
       </c>
       <c r="S22" t="n">
-        <v>18.65071613685356</v>
+        <v>20.27357551531058</v>
       </c>
       <c r="T22" t="n">
-        <v>4.572684707522782</v>
+        <v>4.970568853519026</v>
       </c>
       <c r="U22" t="n">
-        <v>0.05837469839390794</v>
+        <v>0.06345407047045575</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O3" t="n">
-        <v>325.1459203262123</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,7 +35026,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35254,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35415,22 +35415,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M11" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P11" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q11" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35491,13 +35491,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>214.4070918624593</v>
+        <v>214.4070918624592</v>
       </c>
       <c r="L12" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M12" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N12" t="n">
         <v>559.3197334338903</v>
@@ -35570,7 +35570,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L13" t="n">
         <v>128.8624823850085</v>
@@ -35582,10 +35582,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O13" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.9372285181311</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K14" t="n">
-        <v>297.223041434342</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435302</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060966</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492237</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530452</v>
+        <v>552.6880856233106</v>
       </c>
       <c r="P14" t="n">
-        <v>308.9376163116798</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q14" t="n">
-        <v>153.9975062898689</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>257.8255762031298</v>
+        <v>68.29072693268384</v>
       </c>
       <c r="L15" t="n">
-        <v>408.7029475713857</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M15" t="n">
-        <v>529.4413268262938</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N15" t="n">
-        <v>439.8839133355128</v>
+        <v>680.0057497502855</v>
       </c>
       <c r="O15" t="n">
-        <v>444.5817404245898</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735647</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q15" t="n">
-        <v>173.8110948137341</v>
+        <v>38.88789890065112</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,25 +35807,25 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713954</v>
+        <v>102.0686157531412</v>
       </c>
       <c r="L16" t="n">
-        <v>128.8624823850085</v>
+        <v>186.6999948493115</v>
       </c>
       <c r="M16" t="n">
-        <v>146.3614835535656</v>
+        <v>207.3430310295333</v>
       </c>
       <c r="N16" t="n">
-        <v>148.370846145888</v>
+        <v>207.9023887233377</v>
       </c>
       <c r="O16" t="n">
-        <v>120.8664146557981</v>
+        <v>175.8534296854534</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873149</v>
+        <v>126.7147238369855</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>3.452847899353429</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.5453525391271</v>
+        <v>208.1650689228429</v>
       </c>
       <c r="K17" t="n">
-        <v>407.5425384040855</v>
+        <v>433.9499258229881</v>
       </c>
       <c r="L17" t="n">
-        <v>558.3972305517154</v>
+        <v>591.1579297457915</v>
       </c>
       <c r="M17" t="n">
-        <v>638.0987989730412</v>
+        <v>674.5513891373986</v>
       </c>
       <c r="N17" t="n">
-        <v>633.6441091513592</v>
+        <v>670.6865403345856</v>
       </c>
       <c r="O17" t="n">
-        <v>552.6880856233096</v>
+        <v>587.6662029899486</v>
       </c>
       <c r="P17" t="n">
-        <v>433.6515619588823</v>
+        <v>463.5045758839628</v>
       </c>
       <c r="Q17" t="n">
-        <v>247.6524856312122</v>
+        <v>270.0708558296774</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>13.04059864550055</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>130.35201252948</v>
       </c>
       <c r="K18" t="n">
-        <v>332.755963945262</v>
+        <v>350.6921931060762</v>
       </c>
       <c r="L18" t="n">
-        <v>509.4561008748665</v>
+        <v>162.8437403871277</v>
       </c>
       <c r="M18" t="n">
-        <v>647.0155045122262</v>
+        <v>675.1594586263648</v>
       </c>
       <c r="N18" t="n">
-        <v>200.6633754067311</v>
+        <v>708.8945905848753</v>
       </c>
       <c r="O18" t="n">
-        <v>554.9858674269919</v>
+        <v>187.5511936207432</v>
       </c>
       <c r="P18" t="n">
-        <v>340.5859315097334</v>
+        <v>130.9980179452683</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.9666072747238</v>
+        <v>247.2225628405519</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,25 +36044,25 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>102.0686157531409</v>
+        <v>112.8876782761877</v>
       </c>
       <c r="L19" t="n">
-        <v>186.6999948493111</v>
+        <v>200.5446700059549</v>
       </c>
       <c r="M19" t="n">
-        <v>207.3430310295329</v>
+        <v>221.9402998155184</v>
       </c>
       <c r="N19" t="n">
-        <v>207.9023887233373</v>
+        <v>222.1525670840921</v>
       </c>
       <c r="O19" t="n">
-        <v>175.8534296854531</v>
+        <v>189.0157758598139</v>
       </c>
       <c r="P19" t="n">
-        <v>126.7147238369852</v>
+        <v>137.9773848547171</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.452847899353216</v>
+        <v>11.25053059886682</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.5453525391271</v>
+        <v>208.1650689228429</v>
       </c>
       <c r="K20" t="n">
-        <v>407.5425384040855</v>
+        <v>433.9499258229881</v>
       </c>
       <c r="L20" t="n">
-        <v>558.3972305517153</v>
+        <v>591.1579297457915</v>
       </c>
       <c r="M20" t="n">
-        <v>638.0987989730411</v>
+        <v>674.5513891373986</v>
       </c>
       <c r="N20" t="n">
-        <v>633.6441091513591</v>
+        <v>670.6865403345856</v>
       </c>
       <c r="O20" t="n">
-        <v>552.6880856233095</v>
+        <v>587.6662029899486</v>
       </c>
       <c r="P20" t="n">
-        <v>433.6515619588823</v>
+        <v>463.5045758839628</v>
       </c>
       <c r="Q20" t="n">
-        <v>247.6524856312122</v>
+        <v>270.0708558296774</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>13.04059864550055</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>119.8578301584801</v>
+        <v>130.35201252948</v>
       </c>
       <c r="K21" t="n">
-        <v>68.29072693268333</v>
+        <v>350.6921931060762</v>
       </c>
       <c r="L21" t="n">
-        <v>509.4561008748665</v>
+        <v>533.5735744497397</v>
       </c>
       <c r="M21" t="n">
-        <v>647.0155045122261</v>
+        <v>209.4543948763648</v>
       </c>
       <c r="N21" t="n">
-        <v>257.6064425777997</v>
+        <v>229.5522162413218</v>
       </c>
       <c r="O21" t="n">
-        <v>554.9858674269919</v>
+        <v>443.4060290117477</v>
       </c>
       <c r="P21" t="n">
-        <v>428.2502711927636</v>
+        <v>449.4607865852055</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.96660727472377</v>
+        <v>247.2225628405519</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,25 +36281,25 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>102.0686157531409</v>
+        <v>112.8876782761877</v>
       </c>
       <c r="L22" t="n">
-        <v>186.6999948493111</v>
+        <v>200.5446700059549</v>
       </c>
       <c r="M22" t="n">
-        <v>207.3430310295328</v>
+        <v>221.9402998155184</v>
       </c>
       <c r="N22" t="n">
-        <v>207.9023887233373</v>
+        <v>222.1525670840921</v>
       </c>
       <c r="O22" t="n">
-        <v>175.853429685453</v>
+        <v>189.0157758598139</v>
       </c>
       <c r="P22" t="n">
-        <v>126.7147238369852</v>
+        <v>137.9773848547171</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.452847899353202</v>
+        <v>11.25053059886682</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36442,7 +36442,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504662</v>
@@ -36454,7 +36454,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36679,7 +36679,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>537.6668875337001</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504662</v>
@@ -36691,7 +36691,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36916,7 +36916,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>537.6668875337001</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504662</v>
@@ -36928,7 +36928,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -37153,7 +37153,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504662</v>
@@ -37165,7 +37165,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37402,13 +37402,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37639,13 +37639,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -38101,7 +38101,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>526.9295015768312</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504662</v>
@@ -38113,7 +38113,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
